--- a/backend/sheets/LARS.xlsx
+++ b/backend/sheets/LARS.xlsx
@@ -1336,6 +1336,9 @@
       <c r="A35" s="8" t="s">
         <v>41</v>
       </c>
+      <c r="B35" s="5">
+        <v>100.0</v>
+      </c>
       <c r="C35" s="5">
         <v>500.0</v>
       </c>
@@ -1935,8 +1938,12 @@
       <c r="A69" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
+      <c r="B69" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="C69" s="10">
+        <v>0.0</v>
+      </c>
       <c r="D69" s="11"/>
       <c r="E69" s="10">
         <v>0.0</v>
